--- a/biology/Médecine/Stéphane_Velut/Stéphane_Velut.xlsx
+++ b/biology/Médecine/Stéphane_Velut/Stéphane_Velut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>St%C3%A9phane_Velut</t>
+          <t>Stéphane_Velut</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Stéphane Velut, né en 1957, est un neurochirurgien[1] et écrivain français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Stéphane Velut, né en 1957, est un neurochirurgien et écrivain français.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>St%C3%A9phane_Velut</t>
+          <t>Stéphane_Velut</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>St%C3%A9phane_Velut</t>
+          <t>Stéphane_Velut</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,13 +553,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Cadence, Paris, Christian Bourgois Éditeur, 2009, 189 p.  (ISBN 978-2-267-02046-5)[2],[3]
-Festival, Paris, Éditions Verticales, 2014, 171 p.  (ISBN 978-2-07-014482-2)[4]
-Médecine
-Jean-Jacques Santini (dir.), Jean-Marie Scarabin, Stéphane Velut, Ostéologie du rachis et du crâne, Paris, Masson, 1983, 123 p.  (ISBN 978-2-225-80054-2)
-Stéphane Velut, L'hôpital, une nouvelle industrie : le langage comme symptôme, Paris, Éditions Gallimard, coll. « Tracts », 2020, 48 p.  (ISBN 978-2-07-289411-4)[5],[6]
-Stéphane Velut, La mort hors la loi, Gallimard, coll. « Tracts », 2021 (ISBN 978-2-07-297350-5)[7].</t>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cadence, Paris, Christian Bourgois Éditeur, 2009, 189 p.  (ISBN 978-2-267-02046-5),
+Festival, Paris, Éditions Verticales, 2014, 171 p.  (ISBN 978-2-07-014482-2)</t>
         </is>
       </c>
     </row>
@@ -555,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>St%C3%A9phane_Velut</t>
+          <t>Stéphane_Velut</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -570,12 +585,52 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Médecine</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Jean-Jacques Santini (dir.), Jean-Marie Scarabin, Stéphane Velut, Ostéologie du rachis et du crâne, Paris, Masson, 1983, 123 p.  (ISBN 978-2-225-80054-2)
+Stéphane Velut, L'hôpital, une nouvelle industrie : le langage comme symptôme, Paris, Éditions Gallimard, coll. « Tracts », 2020, 48 p.  (ISBN 978-2-07-289411-4),
+Stéphane Velut, La mort hors la loi, Gallimard, coll. « Tracts », 2021 (ISBN 978-2-07-297350-5).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Stéphane_Velut</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/St%C3%A9phane_Velut</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix Sade 2009 pour Cadence[8]</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Prix Sade 2009 pour Cadence</t>
         </is>
       </c>
     </row>
